--- a/similarities/split_global/harmonic_similarity_timestamps_190.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_190.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,642 +484,686 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_106</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000'), ('0:00:20.920000', '0:00:26.040000'), ('0:00:07.300000', '0:00:10.300000')]</t>
+          <t>('0:00:39.840000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:08.640000', '0:01:17.380000'), ('0:00:41.380000', '0:00:43.340000'), ('0:01:27.200000', '0:01:37.220000')]</t>
+          <t>('0:00:00.820000', '0:00:06.760000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=7.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=87.2']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#', 'F#:min'], ['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:03.744784', '0:00:06.774988'), ('0:00:24.387324', '0:00:27.452358')]</t>
+          <t>('0:00:02.360000', '0:00:11.660000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:12.140000', '0:00:20.020000'), ('0:01:14.100000', '0:01:20.040000')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=2.36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:36.740000', '0:01:48.820000')]</t>
+          <t>('0:00:13.180000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:36.660000', '0:01:46.300000')]</t>
+          <t>('0:00:09.240000', '0:00:16.260000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=96.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=96.66']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:03.030000', '0:02:09.120000')]</t>
+          <t>('0:00:02.300000', '0:00:09.880000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+          <t>('0:00:08.540000', '0:00:19.540000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A:maj/E', 'D:min/F', 'A:maj/E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
+          <t>['D', 'G:min', 'D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:02:11.140000', '0:02:13.900000'), ('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:01:12.980000', '0:01:14.880000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:08.150589', '0:01:15.697074'), ('0:00:02.612267', '0:00:17.443474')]</t>
+          <t>('0:02:04.737522', '0:02:11.471309')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=131.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=72.98</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=68.150589', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=124.737522</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_244</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D/7', 'A/3', 'B:min']]</t>
+          <t>['C:min', 'G:min', 'Ab']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:maj', 'G:min/A#']]</t>
+          <t>['D:min', 'A:min/b3', 'Bb:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:11.062412', '0:00:12.567886')]</t>
+          <t>('0:00:23.992000', '0:00:26.567000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:19.860000', '0:00:25.540000')]</t>
+          <t>('0:00:27.537188', '0:00:31.217551')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=11.062412']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=23.992</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=19.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-244#t=27.537188</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['E:7', 'A:min', 'A:min/b3']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:17.340000')]</t>
+          <t>('0:00:25.940000', '0:00:45.200000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:05.672040', '0:00:08.841564')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=25.94</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=5.67204</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C:7', 'F:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:7', 'C:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:01:03.580000', '0:01:06.360000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:30.940000', '0:00:40.540000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.58</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=30.94</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
+          <t>('0:00:13.527000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:22.098788')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
+          <t>isophonics_10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['G:maj/B', 'F:maj/A', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>['D', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
+          <t>('0:00:28.160000', '0:00:30.920000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:25', '0:00:35.520000')]</t>
+          <t>('0:00:34.416000', '0:00:41.151000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=102.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=28.16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-87#t=25.0']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-10#t=34.416</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:23.980000', '0:00:29.420000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.820000')]</t>
+          <t>('0:00:43.680000', '0:00:45.800000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=0.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G/5', 'C/9', 'G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:41.940000')]</t>
+          <t>('0:00:00.727609', '0:00:08.204625')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:02.500000', '0:00:26.200000'), ('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:00:25.480000', '0:00:32.760000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:09.540000', '0:00:11.420000'), ('0:00:00.580000', '0:00:08.960000')]</t>
+          <t>('0:01:37.880000', '0:01:48.980000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:24.520000', '0:00:54.820000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:01.740000', '0:02:05')]</t>
+          <t>('0:02:08.760000', '0:02:13.560000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=24.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=121.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1128,50 +1172,58 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_87</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
+          <t>('0:00:16.860000', '0:00:22.460000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:45.580000')]</t>
+          <t>('0:01:06.427052', '0:01:11.593492')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=16.86</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
